--- a/DS18B20与开发板引脚连接说明/DS18B20与STM32系列开发板引脚连接说明.xlsx
+++ b/DS18B20与开发板引脚连接说明/DS18B20与STM32系列开发板引脚连接说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>DS18B20模块与各开发板引脚连接说明</t>
   </si>
@@ -30,7 +30,7 @@
     <t>指南者开发板</t>
   </si>
   <si>
-    <t>挑战者开发板</t>
+    <t>挑战者开发板_V1</t>
   </si>
   <si>
     <t>挑战者开发板_V2</t>
@@ -42,6 +42,12 @@
     <t>霸道开发板</t>
   </si>
   <si>
+    <t>骄阳开发板</t>
+  </si>
+  <si>
+    <t>拂晓开发板</t>
+  </si>
+  <si>
     <t>H750_Pro开发板</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
   </si>
   <si>
     <t>PD6</t>
+  </si>
+  <si>
+    <t>PB2</t>
   </si>
   <si>
     <t>PA12</t>
@@ -107,12 +116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,20 +155,81 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,59 +243,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -236,65 +253,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,19 +329,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,25 +413,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,43 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,103 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,41 +590,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,10 +622,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -674,17 +638,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,151 +676,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -877,16 +867,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1237,10 +1227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1248,15 +1238,15 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="9" width="18.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="5" max="11" width="18.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:13">
+    <row r="1" ht="22.5" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1270,10 +1260,12 @@
       <c r="I1" s="3"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1297,31 +1289,37 @@
       <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="N2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1331,136 +1329,156 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="13"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="14"/>
     </row>
-    <row r="4" ht="14.25" spans="1:13">
+    <row r="4" ht="14.25" spans="1:15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>22</v>
+      <c r="O5" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="D3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
